--- a/public/report/Consolidated.xlsx
+++ b/public/report/Consolidated.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>Lay Bare Franchising Corporation</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Consolidated Payroll Report for the year 2018</t>
   </si>
   <si>
-    <t>April 16-30, 2018</t>
+    <t>May 16-31, 2018</t>
   </si>
   <si>
     <t>Head Office</t>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>SM Southmall</t>
+  </si>
+  <si>
+    <t>SM Telabastagan</t>
   </si>
   <si>
     <t>Fisher Mall</t>
@@ -1114,10 +1117,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="16">
-        <v>219587.5403872934</v>
+        <v>227739.3091581133</v>
       </c>
       <c r="C5" s="16">
-        <v>18227.4655806709</v>
+        <v>18651.4085391374</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16" t="str">
@@ -1202,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="6">
-        <v>8143.07</v>
+        <v>20312.37</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -1289,10 +1292,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="16">
-        <v>16493.0117403355</v>
+        <v>17877.96910742055</v>
       </c>
       <c r="C7" s="16">
-        <v>12.1894193290737</v>
+        <v>16.3464608626198</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="str">
@@ -1458,7 +1461,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="16">
-        <v>5304.100000000001</v>
+        <v>4504.599999999999</v>
       </c>
       <c r="C9" s="16">
         <v>508.6</v>
@@ -1634,10 +1637,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="16">
-        <v>2595.671103004895</v>
+        <v>2660.370957745843</v>
       </c>
       <c r="C11" s="16">
-        <v>226.21033902456</v>
+        <v>232.10577604333</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16" t="str">
@@ -1892,7 +1895,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="16">
-        <v>2812.25584433754</v>
+        <v>6809.097911348659</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -2220,9 +2223,7 @@
       <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="16">
-        <v>720</v>
-      </c>
+      <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16" t="str">
@@ -2645,7 +2646,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="16">
-        <v>2010.9</v>
+        <v>1260.9</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -2731,7 +2732,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="16">
-        <v>5476.68</v>
+        <v>6580.85</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -2987,10 +2988,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="17">
-        <v>203594.6934399508</v>
+        <v>221019.5502890192</v>
       </c>
       <c r="C27" s="17">
-        <v>16881.2352416463</v>
+        <v>17299.2827630941</v>
       </c>
       <c r="E27" s="17" t="str">
         <f>SUM(B27:D27)</f>
@@ -3448,10 +3449,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="16">
-        <v>79636.9252873557</v>
+        <v>77694.2553639846</v>
       </c>
       <c r="C5" s="16">
-        <v>40658.6918914687</v>
+        <v>43080.6331280963</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16" t="str">
@@ -3538,9 +3539,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="6">
-        <v>12629.32</v>
-      </c>
-      <c r="C6" s="16"/>
+        <v>12768.93</v>
+      </c>
+      <c r="C6" s="16">
+        <v>607.4200000000001</v>
+      </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16" t="str">
         <f>SUM(B6:D6)</f>
@@ -3626,10 +3629,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="16">
-        <v>521.264367816097</v>
+        <v>724.1046360153191</v>
       </c>
       <c r="C7" s="16">
-        <v>153.6935092204971</v>
+        <v>848.5487911938648</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="str">
@@ -3799,10 +3802,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="16">
-        <v>1525.9</v>
+        <v>1562.3</v>
       </c>
       <c r="C9" s="16">
-        <v>1398.7</v>
+        <v>1198.9</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="str">
@@ -3889,7 +3892,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="16">
-        <v>369.16</v>
+        <v>680.6400000000001</v>
       </c>
       <c r="C10" s="16">
         <v>1061.34</v>
@@ -3979,10 +3982,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="16">
-        <v>961.254729406136</v>
+        <v>921.769610392724</v>
       </c>
       <c r="C11" s="16">
-        <v>374.45694047051</v>
+        <v>511.676024537407</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16" t="str">
@@ -4155,7 +4158,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="16">
-        <v>252.36</v>
+        <v>480.68</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -4243,9 +4246,11 @@
         <v>15</v>
       </c>
       <c r="B14" s="16">
-        <v>3653.22933788319</v>
-      </c>
-      <c r="C14" s="16"/>
+        <v>3513.3591056034</v>
+      </c>
+      <c r="C14" s="16">
+        <v>265.404706</v>
+      </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="str">
         <f>SUM(B14:D14)</f>
@@ -4863,7 +4868,9 @@
       <c r="A23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="16">
+        <v>1500</v>
+      </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16" t="str">
@@ -4950,7 +4957,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="16">
-        <v>750.83</v>
+        <v>1855</v>
       </c>
       <c r="C24" s="16">
         <v>2340.84</v>
@@ -5212,10 +5219,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="17">
-        <v>84753.5112200671</v>
+        <v>79949.4366479881</v>
       </c>
       <c r="C27" s="17">
-        <v>35483.35495099809</v>
+        <v>38309.8923975588</v>
       </c>
       <c r="E27" s="17" t="str">
         <f>SUM(B27:D27)</f>
@@ -5734,11 +5741,13 @@
       <c r="AS4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="15" t="s">
+      <c r="AT4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AV4" s="15"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="15"/>
       <c r="AY4" s="15"/>
@@ -5781,143 +5790,145 @@
         <v>6</v>
       </c>
       <c r="B5" s="16">
-        <v>114976.4192337162</v>
+        <v>114214.4173879308</v>
       </c>
       <c r="C5" s="16">
-        <v>34858.4208333332</v>
+        <v>33781.0833333333</v>
       </c>
       <c r="D5" s="16">
-        <v>46070.5583333334</v>
+        <v>43302.6266666667</v>
       </c>
       <c r="E5" s="16">
-        <v>50828.37083333329</v>
+        <v>49482.6125000001</v>
       </c>
       <c r="F5" s="16">
-        <v>41736.8635416668</v>
+        <v>40363.7135416668</v>
       </c>
       <c r="G5" s="16">
-        <v>38864.9083333335</v>
+        <v>40242.7875</v>
       </c>
       <c r="H5" s="16">
-        <v>25312.8541666666</v>
+        <v>29273.6833333333</v>
       </c>
       <c r="I5" s="16">
-        <v>33341.2166666667</v>
+        <v>37351.7197916667</v>
       </c>
       <c r="J5" s="16">
-        <v>38518.7666666666</v>
+        <v>48921.9166666666</v>
       </c>
       <c r="K5" s="16">
-        <v>34494.6985416666</v>
+        <v>27037.3810416667</v>
       </c>
       <c r="L5" s="16">
-        <v>41652.97083333341</v>
+        <v>45244.2208333333</v>
       </c>
       <c r="M5" s="16">
-        <v>13454.6516666667</v>
+        <v>20574.6479166667</v>
       </c>
       <c r="N5" s="16">
-        <v>40266.3541666666</v>
+        <v>34625.6583333334</v>
       </c>
       <c r="O5" s="16">
-        <v>37776.225</v>
+        <v>38722.2458333333</v>
       </c>
       <c r="P5" s="16">
-        <v>31092.775</v>
+        <v>28909.2749999999</v>
       </c>
       <c r="Q5" s="16">
-        <v>38348.2958333332</v>
+        <v>46048.1666666668</v>
       </c>
       <c r="R5" s="16">
-        <v>38479.4833333333</v>
+        <v>40879.99374999999</v>
       </c>
       <c r="S5" s="16">
-        <v>28691.90625</v>
+        <v>26374.8625</v>
       </c>
       <c r="T5" s="16">
-        <v>36523.1060416667</v>
+        <v>52449.020833333</v>
       </c>
       <c r="U5" s="16">
-        <v>33380.2708333334</v>
+        <v>40558.0739583333</v>
       </c>
       <c r="V5" s="16">
-        <v>33379.8125</v>
+        <v>25637.2625</v>
       </c>
       <c r="W5" s="16">
-        <v>21204.56875</v>
+        <v>35425.7208333334</v>
       </c>
       <c r="X5" s="16">
-        <v>30420.8916666667</v>
+        <v>27965.184375</v>
       </c>
       <c r="Y5" s="16">
-        <v>26055.8291666666</v>
+        <v>28883.7166666667</v>
       </c>
       <c r="Z5" s="16">
-        <v>27240.325</v>
+        <v>26119.3635416667</v>
       </c>
       <c r="AA5" s="16">
-        <v>58116.96312499999</v>
+        <v>31553.2708333333</v>
       </c>
       <c r="AB5" s="16">
-        <v>24401.575</v>
+        <v>51680.785</v>
       </c>
       <c r="AC5" s="16">
-        <v>32883.6722916666</v>
+        <v>25762.6916666667</v>
       </c>
       <c r="AD5" s="16">
-        <v>27754.758125</v>
+        <v>36014.9187500001</v>
       </c>
       <c r="AE5" s="16">
-        <v>26508.1770833333</v>
+        <v>28316.1583333334</v>
       </c>
       <c r="AF5" s="16">
-        <v>38386.8625</v>
+        <v>29305.60583333327</v>
       </c>
       <c r="AG5" s="16">
-        <v>27293.7916666667</v>
+        <v>40673.0633333333</v>
       </c>
       <c r="AH5" s="16">
-        <v>24709.9958333333</v>
+        <v>32170.3125</v>
       </c>
       <c r="AI5" s="16">
-        <v>29400.6229166666</v>
+        <v>25638.8249999999</v>
       </c>
       <c r="AJ5" s="16">
-        <v>42393.7883333334</v>
+        <v>30426.2116666667</v>
       </c>
       <c r="AK5" s="16">
-        <v>32308.2916666666</v>
+        <v>27548.3275</v>
       </c>
       <c r="AL5" s="16">
-        <v>24870.4666666666</v>
+        <v>36472.2708333333</v>
       </c>
       <c r="AM5" s="16">
-        <v>29855.9341666666</v>
+        <v>38476.24000000001</v>
       </c>
       <c r="AN5" s="16">
-        <v>39015.53750000009</v>
+        <v>31904.1910416667</v>
       </c>
       <c r="AO5" s="16">
-        <v>32909.1875000001</v>
+        <v>36818.3416666666</v>
       </c>
       <c r="AP5" s="16">
-        <v>33237.7760416666</v>
+        <v>29661.5552083332</v>
       </c>
       <c r="AQ5" s="16">
-        <v>15264.50625</v>
+        <v>32709.5072916667</v>
       </c>
       <c r="AR5" s="16">
-        <v>22075.3941666666</v>
+        <v>29774.7666666667</v>
       </c>
       <c r="AS5" s="16">
-        <v>18290.9125</v>
-      </c>
-      <c r="AT5" s="16"/>
-      <c r="AU5" s="16" t="str">
-        <f>SUM(B5:AT5)</f>
+        <v>16312.8833333333</v>
+      </c>
+      <c r="AT5" s="16">
+        <v>26371.24375</v>
+      </c>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16" t="str">
+        <f>SUM(B5:AU5)</f>
         <v>0</v>
       </c>
-      <c r="AV5" s="16"/>
       <c r="AW5" s="16"/>
       <c r="AX5" s="16"/>
       <c r="AY5" s="16"/>
@@ -5960,75 +5971,91 @@
         <v>7</v>
       </c>
       <c r="B6" s="6">
-        <v>9395.52</v>
+        <v>16989.31</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="F6" s="16">
+        <v>1686.46</v>
+      </c>
       <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="H6" s="16">
+        <v>156.88</v>
+      </c>
       <c r="I6" s="16"/>
       <c r="J6" s="16">
-        <v>662.6</v>
+        <v>862.84</v>
       </c>
       <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="L6" s="16">
+        <v>235.32</v>
+      </c>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
+      <c r="S6" s="16">
+        <v>235.32</v>
+      </c>
       <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
+      <c r="U6" s="16">
+        <v>491.32</v>
+      </c>
+      <c r="V6" s="16">
+        <v>627.52</v>
+      </c>
       <c r="W6" s="16"/>
       <c r="X6" s="16"/>
-      <c r="Y6" s="16">
-        <v>156.88</v>
-      </c>
-      <c r="Z6" s="16">
-        <v>1536</v>
-      </c>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
       <c r="AA6" s="16">
-        <v>1692.88</v>
-      </c>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16">
-        <v>427.5</v>
-      </c>
+        <v>668.88</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>1416.2</v>
+      </c>
+      <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
+      <c r="AE6" s="16">
+        <v>197</v>
+      </c>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="AH6" s="16"/>
-      <c r="AI6" s="16">
-        <v>157.92</v>
-      </c>
+      <c r="AI6" s="16"/>
       <c r="AJ6" s="16"/>
       <c r="AK6" s="16"/>
       <c r="AL6" s="16"/>
       <c r="AM6" s="16">
-        <v>2250</v>
-      </c>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="16">
-        <v>1024</v>
-      </c>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="16"/>
+        <v>2560</v>
+      </c>
+      <c r="AN6" s="16">
+        <v>2741.32</v>
+      </c>
+      <c r="AO6" s="16">
+        <v>2048</v>
+      </c>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16">
+        <v>1139.52</v>
+      </c>
+      <c r="AR6" s="16">
+        <v>156.88</v>
+      </c>
+      <c r="AS6" s="16">
+        <v>424</v>
+      </c>
       <c r="AT6" s="16"/>
-      <c r="AU6" s="16" t="str">
-        <f>SUM(B6:AT6)</f>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16" t="str">
+        <f>SUM(B6:AU6)</f>
         <v>0</v>
       </c>
-      <c r="AV6" s="16"/>
       <c r="AW6" s="16"/>
       <c r="AX6" s="16"/>
       <c r="AY6" s="16"/>
@@ -6071,143 +6098,145 @@
         <v>8</v>
       </c>
       <c r="B7" s="16">
-        <v>7565.277777777811</v>
+        <v>4531.919393678143</v>
       </c>
       <c r="C7" s="16">
-        <v>861.7666666666801</v>
+        <v>758.229166666667</v>
       </c>
       <c r="D7" s="16">
-        <v>408.920833333337</v>
+        <v>173.608333333333</v>
       </c>
       <c r="E7" s="16">
-        <v>1115.90416666667</v>
+        <v>771.8249999999929</v>
       </c>
       <c r="F7" s="16">
-        <v>61.70416666666659</v>
+        <v>1265.458333333329</v>
       </c>
       <c r="G7" s="16">
-        <v>362.904166666662</v>
+        <v>853.4</v>
       </c>
       <c r="H7" s="16">
-        <v>885.82083333334</v>
+        <v>842.94166666667</v>
       </c>
       <c r="I7" s="16">
-        <v>597.1708333333299</v>
+        <v>173.6083333333333</v>
       </c>
       <c r="J7" s="16">
-        <v>550.108333333337</v>
+        <v>230.083333333337</v>
       </c>
       <c r="K7" s="16">
-        <v>98.308333333333</v>
+        <v>858.6291666666771</v>
       </c>
       <c r="L7" s="16">
-        <v>585.6666666666661</v>
+        <v>331.529166666664</v>
       </c>
       <c r="M7" s="16">
-        <v>233.22083333333</v>
+        <v>531.28333333333</v>
       </c>
       <c r="N7" s="16">
-        <v>471.6708333333336</v>
+        <v>190.3416666666663</v>
       </c>
       <c r="O7" s="16">
-        <v>1214.212500000003</v>
+        <v>937.0666666666669</v>
       </c>
       <c r="P7" s="16">
-        <v>370.2249999999967</v>
+        <v>72.16250000000099</v>
       </c>
       <c r="Q7" s="16">
-        <v>720.579166666677</v>
+        <v>700.70833333332</v>
       </c>
       <c r="R7" s="16">
-        <v>391.1416666666699</v>
+        <v>553.245833333336</v>
       </c>
       <c r="S7" s="16">
-        <v>517.6874999999932</v>
+        <v>505.1374999999969</v>
       </c>
       <c r="T7" s="16">
-        <v>521.8708333333333</v>
+        <v>102.49166666667</v>
       </c>
       <c r="U7" s="16">
-        <v>24.0541666666663</v>
+        <v>785.4208333333398</v>
       </c>
       <c r="V7" s="16">
-        <v>15.6875</v>
+        <v>28.2375</v>
       </c>
       <c r="W7" s="16">
-        <v>278.19166666667</v>
+        <v>17.7791666666663</v>
       </c>
       <c r="X7" s="16">
-        <v>299.10833333333</v>
+        <v>174.654166666667</v>
       </c>
       <c r="Y7" s="16">
-        <v>95.170833333334</v>
+        <v>139.095833333333</v>
       </c>
       <c r="Z7" s="16">
-        <v>200.8000000000033</v>
+        <v>161.058333333333</v>
       </c>
       <c r="AA7" s="16">
-        <v>160.0125000000033</v>
+        <v>203.9374999999967</v>
       </c>
       <c r="AB7" s="16">
-        <v>232.175</v>
+        <v>3.1375</v>
       </c>
       <c r="AC7" s="16">
-        <v>217.5333333333337</v>
+        <v>506.1833333333333</v>
       </c>
       <c r="AD7" s="16">
-        <v>150.6</v>
+        <v>257.2749999999993</v>
       </c>
       <c r="AE7" s="16">
-        <v>20.9166666666667</v>
+        <v>1131.591666666663</v>
       </c>
       <c r="AF7" s="16">
-        <v>285.5125000000003</v>
+        <v>654.6916666666696</v>
       </c>
       <c r="AG7" s="16">
-        <v>79.48333333333269</v>
+        <v>353.4916666666667</v>
       </c>
       <c r="AH7" s="16">
-        <v>890.00416666667</v>
+        <v>128.6374999999997</v>
       </c>
       <c r="AI7" s="16">
-        <v>3.1375</v>
+        <v>985.175000000007</v>
       </c>
       <c r="AJ7" s="16">
-        <v>178.8374999999963</v>
+        <v>89.941666666667</v>
       </c>
       <c r="AK7" s="16">
-        <v>26.1458333333337</v>
+        <v>366.041666666667</v>
       </c>
       <c r="AL7" s="16">
-        <v>217.533333333334</v>
+        <v>36.604166666667</v>
       </c>
       <c r="AM7" s="16">
-        <v>164.195833333334</v>
+        <v>569.9791666666699</v>
       </c>
       <c r="AN7" s="16">
-        <v>705.9374999999931</v>
+        <v>69.02500000000001</v>
       </c>
       <c r="AO7" s="16">
-        <v>47.06249999999969</v>
+        <v>813.6583333333369</v>
       </c>
       <c r="AP7" s="16">
-        <v>292.833333333333</v>
+        <v>154.7833333333367</v>
       </c>
       <c r="AQ7" s="16">
-        <v>84.71250000000001</v>
+        <v>83.6666666666663</v>
       </c>
       <c r="AR7" s="16">
-        <v>69.02500000000001</v>
+        <v>435.066666666663</v>
       </c>
       <c r="AS7" s="16">
-        <v>37.6499999999997</v>
-      </c>
-      <c r="AT7" s="16"/>
-      <c r="AU7" s="16" t="str">
-        <f>SUM(B7:AT7)</f>
+        <v>71.116666666667</v>
+      </c>
+      <c r="AT7" s="16">
+        <v>18.8249999999997</v>
+      </c>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16" t="str">
+        <f>SUM(B7:AU7)</f>
         <v>0</v>
       </c>
-      <c r="AV7" s="16"/>
       <c r="AW7" s="16"/>
       <c r="AX7" s="16"/>
       <c r="AY7" s="16"/>
@@ -6338,143 +6367,145 @@
         <v>10</v>
       </c>
       <c r="B9" s="16">
-        <v>1798.2</v>
+        <v>2197.8</v>
       </c>
       <c r="C9" s="16">
-        <v>1289.8</v>
+        <v>1199.2</v>
       </c>
       <c r="D9" s="16">
-        <v>1689.5</v>
+        <v>1544.2</v>
       </c>
       <c r="E9" s="16">
-        <v>1871.2</v>
+        <v>1762.1</v>
       </c>
       <c r="F9" s="16">
+        <v>1471.6</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1489.8</v>
+      </c>
+      <c r="H9" s="16">
+        <v>1071.8</v>
+      </c>
+      <c r="I9" s="16">
+        <v>1362.5</v>
+      </c>
+      <c r="J9" s="16">
+        <v>1780.4</v>
+      </c>
+      <c r="K9" s="16">
+        <v>980.9000000000001</v>
+      </c>
+      <c r="L9" s="16">
+        <v>1653.2</v>
+      </c>
+      <c r="M9" s="16">
+        <v>726.7</v>
+      </c>
+      <c r="N9" s="16">
+        <v>1253.7</v>
+      </c>
+      <c r="O9" s="16">
+        <v>1398.9</v>
+      </c>
+      <c r="P9" s="16">
+        <v>1053.6</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>1689.6</v>
+      </c>
+      <c r="R9" s="16">
+        <v>1507.8</v>
+      </c>
+      <c r="S9" s="16">
+        <v>962.8999999999999</v>
+      </c>
+      <c r="T9" s="16">
+        <v>1253.4</v>
+      </c>
+      <c r="U9" s="16">
+        <v>1489.7</v>
+      </c>
+      <c r="V9" s="16">
+        <v>908.3</v>
+      </c>
+      <c r="W9" s="16">
+        <v>1253.6</v>
+      </c>
+      <c r="X9" s="16">
+        <v>1017.3</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>1053.5</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>926.6999999999999</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>1035.4</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>1889.4</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>926.5999999999999</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>1307.9</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>1017.3</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>1017.3</v>
+      </c>
+      <c r="AG9" s="16">
         <v>1453.4</v>
       </c>
-      <c r="G9" s="16">
-        <v>1435.3</v>
-      </c>
-      <c r="H9" s="16">
-        <v>926.5</v>
-      </c>
-      <c r="I9" s="16">
-        <v>1198.9</v>
-      </c>
-      <c r="J9" s="16">
-        <v>1435.2</v>
-      </c>
-      <c r="K9" s="16">
-        <v>1253.7</v>
-      </c>
-      <c r="L9" s="16">
-        <v>1435</v>
-      </c>
-      <c r="M9" s="16">
-        <v>490.6</v>
-      </c>
-      <c r="N9" s="16">
-        <v>1471.5</v>
-      </c>
-      <c r="O9" s="16">
-        <v>1380.6</v>
-      </c>
-      <c r="P9" s="16">
-        <v>1144.5</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>1398.7</v>
-      </c>
-      <c r="R9" s="16">
-        <v>1435.3</v>
-      </c>
-      <c r="S9" s="16">
-        <v>1053.6</v>
-      </c>
-      <c r="T9" s="16">
-        <v>1308</v>
-      </c>
-      <c r="U9" s="16">
-        <v>1235.4</v>
-      </c>
-      <c r="V9" s="16">
-        <v>1253.6</v>
-      </c>
-      <c r="W9" s="16">
-        <v>744.8</v>
-      </c>
-      <c r="X9" s="16">
-        <v>1108.4</v>
-      </c>
-      <c r="Y9" s="16">
-        <v>944.5000000000001</v>
-      </c>
-      <c r="Z9" s="16">
-        <v>962.9000000000001</v>
-      </c>
-      <c r="AA9" s="16">
-        <v>2180</v>
-      </c>
-      <c r="AB9" s="16">
-        <v>890.0999999999999</v>
-      </c>
-      <c r="AC9" s="16">
-        <v>1199</v>
-      </c>
-      <c r="AD9" s="16">
-        <v>1035.5</v>
-      </c>
-      <c r="AE9" s="16">
-        <v>962.8</v>
-      </c>
-      <c r="AF9" s="16">
-        <v>1398.8</v>
-      </c>
-      <c r="AG9" s="16">
-        <v>981</v>
-      </c>
       <c r="AH9" s="16">
-        <v>926.5</v>
+        <v>1108.1</v>
       </c>
       <c r="AI9" s="16">
-        <v>1053.6</v>
+        <v>944.7</v>
       </c>
       <c r="AJ9" s="16">
-        <v>1544.2</v>
+        <v>1071.9</v>
       </c>
       <c r="AK9" s="16">
-        <v>1162.6</v>
+        <v>999.1</v>
       </c>
       <c r="AL9" s="16">
-        <v>926.5</v>
+        <v>1290</v>
       </c>
       <c r="AM9" s="16">
-        <v>1053.6</v>
+        <v>1144.4</v>
       </c>
       <c r="AN9" s="16">
-        <v>1398.8</v>
+        <v>1089.8</v>
       </c>
       <c r="AO9" s="16">
-        <v>1181</v>
+        <v>1326.2</v>
       </c>
       <c r="AP9" s="16">
-        <v>1217.1</v>
+        <v>1071.9</v>
       </c>
       <c r="AQ9" s="16">
-        <v>545</v>
+        <v>1126.3</v>
       </c>
       <c r="AR9" s="16">
-        <v>799.2</v>
+        <v>1090</v>
       </c>
       <c r="AS9" s="16">
-        <v>690.4</v>
-      </c>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="16" t="str">
-        <f>SUM(B9:AT9)</f>
+        <v>599.5</v>
+      </c>
+      <c r="AT9" s="16">
+        <v>835.5999999999999</v>
+      </c>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16" t="str">
+        <f>SUM(B9:AU9)</f>
         <v>0</v>
       </c>
-      <c r="AV9" s="16"/>
       <c r="AW9" s="16"/>
       <c r="AX9" s="16"/>
       <c r="AY9" s="16"/>
@@ -6517,10 +6548,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="16">
-        <v>1868.87</v>
+        <v>2226.5</v>
       </c>
       <c r="C10" s="16">
-        <v>599.88</v>
+        <v>501.19</v>
       </c>
       <c r="D10" s="16">
         <v>934.4399999999999</v>
@@ -6539,56 +6570,52 @@
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="16">
-        <v>311.48</v>
+        <v>911.37</v>
       </c>
       <c r="K10" s="16">
         <v>299.94</v>
       </c>
-      <c r="L10" s="16">
-        <v>980.58</v>
-      </c>
+      <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16">
-        <v>1199.77</v>
-      </c>
-      <c r="O10" s="16">
-        <v>622.96</v>
-      </c>
+        <v>553.74</v>
+      </c>
+      <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16">
         <v>1211.3</v>
       </c>
       <c r="R10" s="16">
-        <v>299.94</v>
+        <v>945.97</v>
       </c>
       <c r="S10" s="16">
-        <v>911.3600000000001</v>
-      </c>
-      <c r="T10" s="16">
+        <v>888.29</v>
+      </c>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16">
         <v>276.87</v>
       </c>
-      <c r="U10" s="16">
+      <c r="V10" s="16">
         <v>634.5</v>
       </c>
-      <c r="V10" s="16">
+      <c r="W10" s="16">
         <v>922.91</v>
       </c>
-      <c r="W10" s="16">
+      <c r="X10" s="16">
         <v>622.96</v>
       </c>
-      <c r="X10" s="16">
+      <c r="Y10" s="16">
         <v>669.1</v>
       </c>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16">
-        <v>634.54</v>
-      </c>
-      <c r="AA10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16">
+        <v>934.48</v>
+      </c>
       <c r="AB10" s="16"/>
-      <c r="AC10" s="16">
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16">
         <v>922.9</v>
       </c>
-      <c r="AD10" s="16"/>
       <c r="AE10" s="16"/>
       <c r="AF10" s="16"/>
       <c r="AG10" s="16"/>
@@ -6597,33 +6624,31 @@
       <c r="AJ10" s="16"/>
       <c r="AK10" s="16"/>
       <c r="AL10" s="16"/>
-      <c r="AM10" s="16">
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16">
         <v>969.04</v>
       </c>
-      <c r="AN10" s="16">
+      <c r="AO10" s="16">
         <v>1234.38</v>
       </c>
-      <c r="AO10" s="16">
-        <v>1534.32</v>
-      </c>
       <c r="AP10" s="16">
+        <v>888.29</v>
+      </c>
+      <c r="AQ10" s="16">
         <v>299.94</v>
       </c>
-      <c r="AQ10" s="16">
-        <v>1199.78</v>
-      </c>
       <c r="AR10" s="16">
-        <v>299.94</v>
-      </c>
-      <c r="AS10" s="16">
+        <v>1868.88</v>
+      </c>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16">
         <v>646.03</v>
       </c>
-      <c r="AT10" s="16"/>
-      <c r="AU10" s="16" t="str">
-        <f>SUM(B10:AT10)</f>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16" t="str">
+        <f>SUM(B10:AU10)</f>
         <v>0</v>
       </c>
-      <c r="AV10" s="16"/>
       <c r="AW10" s="16"/>
       <c r="AX10" s="16"/>
       <c r="AY10" s="16"/>
@@ -6666,143 +6691,145 @@
         <v>12</v>
       </c>
       <c r="B11" s="16">
-        <v>1529.804324688709</v>
+        <v>1449.698774883846</v>
       </c>
       <c r="C11" s="16">
-        <v>193.5131458333324</v>
+        <v>215.132121874999</v>
       </c>
       <c r="D11" s="16">
-        <v>392.774948958333</v>
+        <v>361.41618046875</v>
       </c>
       <c r="E11" s="16">
-        <v>337.522166666665</v>
+        <v>345.556727083336</v>
       </c>
       <c r="F11" s="16">
-        <v>356.068415885417</v>
+        <v>361.499346197918</v>
       </c>
       <c r="G11" s="16">
-        <v>322.151213541668</v>
+        <v>296.1720552083331</v>
       </c>
       <c r="H11" s="16">
-        <v>189.915458333333</v>
+        <v>276.247377083334</v>
       </c>
       <c r="I11" s="16">
-        <v>271.6976653645841</v>
+        <v>251.413218489584</v>
       </c>
       <c r="J11" s="16">
-        <v>321.245661458332</v>
+        <v>495.881317708333</v>
       </c>
       <c r="K11" s="16">
-        <v>295.449856510416</v>
+        <v>254.094328125</v>
       </c>
       <c r="L11" s="16">
-        <v>383.244239583334</v>
+        <v>459.521327604167</v>
       </c>
       <c r="M11" s="16">
-        <v>84.30281979166699</v>
+        <v>128.4395234375</v>
       </c>
       <c r="N11" s="16">
-        <v>305.3730625000001</v>
+        <v>282.383956250001</v>
       </c>
       <c r="O11" s="16">
-        <v>278.788984374999</v>
+        <v>277.803602083334</v>
       </c>
       <c r="P11" s="16">
-        <v>256.905802083334</v>
+        <v>251.829233333332</v>
       </c>
       <c r="Q11" s="16">
-        <v>243.440255208332</v>
+        <v>305.872685937502</v>
       </c>
       <c r="R11" s="16">
-        <v>287.386572916666</v>
+        <v>309.403559895834</v>
       </c>
       <c r="S11" s="16">
-        <v>256.37807421875</v>
+        <v>217.166841145833</v>
       </c>
       <c r="T11" s="16">
-        <v>248.748139062501</v>
+        <v>576.1857864583301</v>
       </c>
       <c r="U11" s="16">
-        <v>248.180166666667</v>
+        <v>268.0627669270843</v>
       </c>
       <c r="V11" s="16">
-        <v>280.62546875</v>
+        <v>219.525327083334</v>
       </c>
       <c r="W11" s="16">
-        <v>218.723799479166</v>
+        <v>292.211390625</v>
       </c>
       <c r="X11" s="16">
-        <v>220.277635416668</v>
+        <v>232.418152083333</v>
       </c>
       <c r="Y11" s="16">
-        <v>170.668838541665</v>
+        <v>218.878973958334</v>
       </c>
       <c r="Z11" s="16">
-        <v>248.570552083333</v>
+        <v>175.239410156251</v>
       </c>
       <c r="AA11" s="16">
-        <v>404.778882291666</v>
+        <v>349.129486979166</v>
       </c>
       <c r="AB11" s="16">
-        <v>173.163890625</v>
+        <v>360.554929166667</v>
       </c>
       <c r="AC11" s="16">
-        <v>270.0841</v>
+        <v>166.200718750001</v>
       </c>
       <c r="AD11" s="16">
-        <v>215.95108046875</v>
+        <v>328.862714583335</v>
       </c>
       <c r="AE11" s="16">
-        <v>236.845268229166</v>
+        <v>238.698327083334</v>
       </c>
       <c r="AF11" s="16">
-        <v>283.92546875</v>
+        <v>351.1602703124989</v>
       </c>
       <c r="AG11" s="16">
-        <v>187.855536458334</v>
+        <v>327.398740624999</v>
       </c>
       <c r="AH11" s="16">
-        <v>154.153255208333</v>
+        <v>299.6452020833329</v>
       </c>
       <c r="AI11" s="16">
-        <v>270.683336458334</v>
+        <v>172.447819270832</v>
       </c>
       <c r="AJ11" s="16">
-        <v>361.173409895834</v>
+        <v>298.881943593751</v>
       </c>
       <c r="AK11" s="16">
-        <v>173.1946562499993</v>
+        <v>210.140320729167</v>
       </c>
       <c r="AL11" s="16">
-        <v>157.826510416666</v>
+        <v>196.076489583333</v>
       </c>
       <c r="AM11" s="16">
-        <v>300.334163020833</v>
+        <v>341.73415260417</v>
       </c>
       <c r="AN11" s="16">
-        <v>278.934161458335</v>
+        <v>314.941684635418</v>
       </c>
       <c r="AO11" s="16">
-        <v>277.818621093751</v>
+        <v>188.717621354166</v>
       </c>
       <c r="AP11" s="16">
-        <v>263.900060416666</v>
+        <v>261.839634374998</v>
       </c>
       <c r="AQ11" s="16">
-        <v>173.915583072916</v>
+        <v>333.15920859375</v>
       </c>
       <c r="AR11" s="16">
-        <v>202.916017447916</v>
+        <v>272.49536875</v>
       </c>
       <c r="AS11" s="16">
-        <v>133.036263020834</v>
-      </c>
-      <c r="AT11" s="16"/>
-      <c r="AU11" s="16" t="str">
-        <f>SUM(B11:AT11)</f>
+        <v>156.293270833333</v>
+      </c>
+      <c r="AT11" s="16">
+        <v>287.519604166667</v>
+      </c>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16" t="str">
+        <f>SUM(B11:AU11)</f>
         <v>0</v>
       </c>
-      <c r="AV11" s="16"/>
       <c r="AW11" s="16"/>
       <c r="AX11" s="16"/>
       <c r="AY11" s="16"/>
@@ -6889,11 +6916,11 @@
       <c r="AR12" s="16"/>
       <c r="AS12" s="16"/>
       <c r="AT12" s="16"/>
-      <c r="AU12" s="16" t="str">
-        <f>SUM(B12:AT12)</f>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16" t="str">
+        <f>SUM(B12:AU12)</f>
         <v>0</v>
       </c>
-      <c r="AV12" s="16"/>
       <c r="AW12" s="16"/>
       <c r="AX12" s="16"/>
       <c r="AY12" s="16"/>
@@ -6939,13 +6966,13 @@
         <v>1379.66</v>
       </c>
       <c r="C13" s="16">
-        <v>460.87</v>
+        <v>502.35</v>
       </c>
       <c r="D13" s="16">
         <v>563.87</v>
       </c>
       <c r="E13" s="16">
-        <v>849.29</v>
+        <v>1276.69</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
@@ -6958,17 +6985,15 @@
         <v>181.17</v>
       </c>
       <c r="J13" s="16">
-        <v>512.74</v>
+        <v>569.74</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="16">
-        <v>715.35</v>
+        <v>292.65</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="16">
-        <v>230.16</v>
-      </c>
+      <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16">
         <v>456.92</v>
@@ -6980,24 +7005,26 @@
         <v>159.98</v>
       </c>
       <c r="T13" s="16"/>
-      <c r="U13" s="16">
+      <c r="U13" s="16"/>
+      <c r="V13" s="16">
         <v>148.28</v>
       </c>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16">
+      <c r="W13" s="16"/>
+      <c r="X13" s="16">
         <v>458.66</v>
       </c>
-      <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16">
+        <v>267.91</v>
+      </c>
+      <c r="AA13" s="16">
         <v>246.75</v>
       </c>
-      <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
-      <c r="AC13" s="16">
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16">
         <v>317.9</v>
       </c>
-      <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
       <c r="AF13" s="16"/>
       <c r="AG13" s="16"/>
@@ -7005,28 +7032,28 @@
       <c r="AI13" s="16"/>
       <c r="AJ13" s="16"/>
       <c r="AK13" s="16"/>
-      <c r="AL13" s="16">
-        <v>427.4</v>
-      </c>
-      <c r="AM13" s="16">
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="16">
         <v>479.11</v>
       </c>
-      <c r="AN13" s="16">
+      <c r="AO13" s="16">
         <v>618.1800000000001</v>
       </c>
-      <c r="AO13" s="16">
+      <c r="AP13" s="16">
         <v>164.74</v>
       </c>
-      <c r="AP13" s="16"/>
       <c r="AQ13" s="16"/>
-      <c r="AR13" s="16"/>
+      <c r="AR13" s="16">
+        <v>230.16</v>
+      </c>
       <c r="AS13" s="16"/>
       <c r="AT13" s="16"/>
-      <c r="AU13" s="16" t="str">
-        <f>SUM(B13:AT13)</f>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16" t="str">
+        <f>SUM(B13:AU13)</f>
         <v>0</v>
       </c>
-      <c r="AV13" s="16"/>
       <c r="AW13" s="16"/>
       <c r="AX13" s="16"/>
       <c r="AY13" s="16"/>
@@ -7069,7 +7096,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="16">
-        <v>2984.338538379989</v>
+        <v>3503.0018336817</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -7115,11 +7142,11 @@
       <c r="AR14" s="16"/>
       <c r="AS14" s="16"/>
       <c r="AT14" s="16"/>
-      <c r="AU14" s="16" t="str">
-        <f>SUM(B14:AT14)</f>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16" t="str">
+        <f>SUM(B14:AU14)</f>
         <v>0</v>
       </c>
-      <c r="AV14" s="16"/>
       <c r="AW14" s="16"/>
       <c r="AX14" s="16"/>
       <c r="AY14" s="16"/>
@@ -7435,23 +7462,27 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
+      <c r="L18" s="16">
+        <v>295</v>
+      </c>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
+      <c r="R18" s="16">
+        <v>147.5</v>
+      </c>
       <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
+      <c r="T18" s="16">
+        <v>147.5</v>
+      </c>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
-      <c r="Z18" s="16">
-        <v>295</v>
-      </c>
+      <c r="Z18" s="16"/>
       <c r="AA18" s="16"/>
       <c r="AB18" s="16"/>
       <c r="AC18" s="16"/>
@@ -7460,27 +7491,25 @@
       <c r="AF18" s="16"/>
       <c r="AG18" s="16"/>
       <c r="AH18" s="16"/>
-      <c r="AI18" s="16">
-        <v>295</v>
-      </c>
+      <c r="AI18" s="16"/>
       <c r="AJ18" s="16"/>
       <c r="AK18" s="16"/>
       <c r="AL18" s="16"/>
       <c r="AM18" s="16"/>
       <c r="AN18" s="16"/>
-      <c r="AO18" s="16"/>
-      <c r="AP18" s="16">
-        <v>590</v>
-      </c>
+      <c r="AO18" s="16">
+        <v>147.5</v>
+      </c>
+      <c r="AP18" s="16"/>
       <c r="AQ18" s="16"/>
       <c r="AR18" s="16"/>
       <c r="AS18" s="16"/>
       <c r="AT18" s="16"/>
-      <c r="AU18" s="16" t="str">
-        <f>SUM(B18:AT18)</f>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16" t="str">
+        <f>SUM(B18:AU18)</f>
         <v>0</v>
       </c>
-      <c r="AV18" s="16"/>
       <c r="AW18" s="16"/>
       <c r="AX18" s="16"/>
       <c r="AY18" s="16"/>
@@ -7567,11 +7596,11 @@
       <c r="AR19" s="16"/>
       <c r="AS19" s="16"/>
       <c r="AT19" s="16"/>
-      <c r="AU19" s="16" t="str">
-        <f>SUM(B19:AT19)</f>
+      <c r="AU19" s="16"/>
+      <c r="AV19" s="16" t="str">
+        <f>SUM(B19:AU19)</f>
         <v>0</v>
       </c>
-      <c r="AV19" s="16"/>
       <c r="AW19" s="16"/>
       <c r="AX19" s="16"/>
       <c r="AY19" s="16"/>
@@ -7613,9 +7642,7 @@
       <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="16">
-        <v>375</v>
-      </c>
+      <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -7660,11 +7687,11 @@
       <c r="AR20" s="16"/>
       <c r="AS20" s="16"/>
       <c r="AT20" s="16"/>
-      <c r="AU20" s="16" t="str">
-        <f>SUM(B20:AT20)</f>
+      <c r="AU20" s="16"/>
+      <c r="AV20" s="16" t="str">
+        <f>SUM(B20:AU20)</f>
         <v>0</v>
       </c>
-      <c r="AV20" s="16"/>
       <c r="AW20" s="16"/>
       <c r="AX20" s="16"/>
       <c r="AY20" s="16"/>
@@ -7706,12 +7733,10 @@
       <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="16">
-        <v>2652.3</v>
-      </c>
+      <c r="B21" s="16"/>
       <c r="C21" s="16"/>
-      <c r="AU21" s="5" t="str">
-        <f>SUM(B21:AT21)</f>
+      <c r="AV21" s="5" t="str">
+        <f>SUM(B21:AU21)</f>
         <v>0</v>
       </c>
     </row>
@@ -7721,8 +7746,8 @@
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
-      <c r="AU22" s="5" t="str">
-        <f>SUM(B22:AT22)</f>
+      <c r="AV22" s="5" t="str">
+        <f>SUM(B22:AU22)</f>
         <v>0</v>
       </c>
     </row>
@@ -7731,28 +7756,25 @@
         <v>24</v>
       </c>
       <c r="B23" s="16">
-        <v>1158.34</v>
+        <v>2233.34</v>
       </c>
       <c r="C23" s="16">
         <v>343.06</v>
       </c>
+      <c r="I23" s="5">
+        <v>250</v>
+      </c>
       <c r="J23" s="5">
         <v>783.5</v>
       </c>
-      <c r="O23" s="5">
+      <c r="K23" s="5">
+        <v>250</v>
+      </c>
+      <c r="AR23" s="5">
         <v>664.4400000000001</v>
       </c>
-      <c r="AC23" s="5">
-        <v>250</v>
-      </c>
-      <c r="AJ23" s="5">
-        <v>233.33</v>
-      </c>
-      <c r="AR23" s="5">
-        <v>309.33</v>
-      </c>
-      <c r="AU23" s="5" t="str">
-        <f>SUM(B23:AT23)</f>
+      <c r="AV23" s="5" t="str">
+        <f>SUM(B23:AU23)</f>
         <v>0</v>
       </c>
     </row>
@@ -7777,7 +7799,7 @@
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="16">
-        <v>927.48</v>
+        <v>1236.65</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
@@ -7786,7 +7808,7 @@
         <v>220.83</v>
       </c>
       <c r="O24" s="16">
-        <v>309.17</v>
+        <v>618.34</v>
       </c>
       <c r="P24" s="16"/>
       <c r="Q24" s="16">
@@ -7794,25 +7816,23 @@
       </c>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
-      <c r="T24" s="16">
-        <v>309.17</v>
-      </c>
-      <c r="U24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16">
+        <v>618.34</v>
+      </c>
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
-      <c r="X24" s="16">
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16">
         <v>309.17</v>
       </c>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16">
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16">
         <v>500</v>
       </c>
-      <c r="AA24" s="16"/>
       <c r="AB24" s="16"/>
       <c r="AC24" s="16"/>
-      <c r="AD24" s="16">
-        <v>309.17</v>
-      </c>
+      <c r="AD24" s="16"/>
       <c r="AE24" s="16"/>
       <c r="AF24" s="16"/>
       <c r="AG24" s="16"/>
@@ -7829,11 +7849,11 @@
       <c r="AR24" s="16"/>
       <c r="AS24" s="16"/>
       <c r="AT24" s="16"/>
-      <c r="AU24" s="16" t="str">
-        <f>SUM(B24:AT24)</f>
+      <c r="AU24" s="16"/>
+      <c r="AV24" s="16" t="str">
+        <f>SUM(B24:AU24)</f>
         <v>0</v>
       </c>
-      <c r="AV24" s="16"/>
       <c r="AW24" s="16"/>
       <c r="AX24" s="16"/>
       <c r="AY24" s="16"/>
@@ -7889,7 +7909,9 @@
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
+      <c r="L25" s="16">
+        <v>175</v>
+      </c>
       <c r="M25" s="16">
         <v>175</v>
       </c>
@@ -7897,23 +7919,19 @@
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
-      <c r="R25" s="16">
-        <v>175</v>
-      </c>
+      <c r="R25" s="16"/>
       <c r="S25" s="16"/>
       <c r="T25" s="16"/>
-      <c r="U25" s="16">
-        <v>175</v>
-      </c>
+      <c r="U25" s="16"/>
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
       <c r="Z25" s="16"/>
-      <c r="AA25" s="16">
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16">
         <v>466.68</v>
       </c>
-      <c r="AB25" s="16"/>
       <c r="AC25" s="16"/>
       <c r="AD25" s="16"/>
       <c r="AE25" s="16"/>
@@ -7921,32 +7939,26 @@
       <c r="AG25" s="16"/>
       <c r="AH25" s="16"/>
       <c r="AI25" s="16"/>
-      <c r="AJ25" s="16">
-        <v>187.5</v>
-      </c>
-      <c r="AK25" s="16">
-        <v>425</v>
-      </c>
+      <c r="AJ25" s="16"/>
+      <c r="AK25" s="16"/>
       <c r="AL25" s="16">
         <v>250</v>
       </c>
-      <c r="AM25" s="16"/>
-      <c r="AN25" s="16">
-        <v>175</v>
-      </c>
-      <c r="AO25" s="16">
-        <v>350</v>
-      </c>
+      <c r="AM25" s="16">
+        <v>250</v>
+      </c>
+      <c r="AN25" s="16"/>
+      <c r="AO25" s="16"/>
       <c r="AP25" s="16"/>
       <c r="AQ25" s="16"/>
       <c r="AR25" s="16"/>
       <c r="AS25" s="16"/>
       <c r="AT25" s="16"/>
-      <c r="AU25" s="16" t="str">
-        <f>SUM(B25:AT25)</f>
+      <c r="AU25" s="16"/>
+      <c r="AV25" s="16" t="str">
+        <f>SUM(B25:AU25)</f>
         <v>0</v>
       </c>
-      <c r="AV25" s="16"/>
       <c r="AW25" s="16"/>
       <c r="AX25" s="16"/>
       <c r="AY25" s="16"/>
@@ -8033,11 +8045,11 @@
       <c r="AR26" s="16"/>
       <c r="AS26" s="16"/>
       <c r="AT26" s="16"/>
-      <c r="AU26" s="16" t="str">
-        <f>SUM(B26:AT26)</f>
+      <c r="AU26" s="16"/>
+      <c r="AV26" s="16" t="str">
+        <f>SUM(B26:AU26)</f>
         <v>0</v>
       </c>
-      <c r="AV26" s="16"/>
       <c r="AW26" s="16"/>
       <c r="AX26" s="16"/>
       <c r="AY26" s="16"/>
@@ -8080,143 +8092,145 @@
         <v>28</v>
       </c>
       <c r="B27" s="15">
-        <v>106252.9263706489</v>
+        <v>113841.2267793649</v>
       </c>
       <c r="C27" s="15">
-        <v>31737.9576875</v>
+        <v>30786.8112114584</v>
       </c>
       <c r="D27" s="15">
-        <v>42489.9733843751</v>
+        <v>39898.700486198</v>
       </c>
       <c r="E27" s="15">
-        <v>46572.8986666668</v>
+        <v>44900.80577291651</v>
       </c>
       <c r="F27" s="15">
-        <v>38280.0151257813</v>
+        <v>38569.6941954688</v>
       </c>
       <c r="G27" s="15">
-        <v>35402.5171197917</v>
+        <v>36751.8754447917</v>
       </c>
       <c r="H27" s="15">
-        <v>22267.7387083333</v>
+        <v>26153.8159562499</v>
       </c>
       <c r="I27" s="15">
-        <v>31689.449001302</v>
+        <v>35306.6365731771</v>
       </c>
       <c r="J27" s="15">
-        <v>34889.7210052084</v>
+        <v>44007.2153489583</v>
       </c>
       <c r="K27" s="15">
-        <v>32645.6086851563</v>
+        <v>25252.4467135417</v>
       </c>
       <c r="L27" s="15">
-        <v>38138.79659375</v>
+        <v>42604.16950572911</v>
       </c>
       <c r="M27" s="15">
-        <v>12704.748846875</v>
+        <v>19544.5083932292</v>
       </c>
       <c r="N27" s="15">
-        <v>37068.8811041666</v>
+        <v>32315.0043770833</v>
       </c>
       <c r="O27" s="15">
-        <v>34290.1060156251</v>
+        <v>36427.2022312499</v>
       </c>
       <c r="P27" s="15">
-        <v>29691.3691979166</v>
+        <v>27603.8457666667</v>
       </c>
       <c r="Q27" s="15">
-        <v>34728.775578125</v>
+        <v>42075.3139807291</v>
       </c>
       <c r="R27" s="15">
-        <v>35869.27676041669</v>
+        <v>37556.7401901041</v>
       </c>
       <c r="S27" s="15">
-        <v>26310.58817578127</v>
+        <v>24381.8456588542</v>
       </c>
       <c r="T27" s="15">
-        <v>34380.3179026041</v>
+        <v>50471.93504687599</v>
       </c>
       <c r="U27" s="15">
-        <v>30938.9106666667</v>
+        <v>38396.4211914061</v>
       </c>
       <c r="V27" s="15">
-        <v>30922.67703125</v>
+        <v>24354.1771729166</v>
       </c>
       <c r="W27" s="15">
-        <v>19159.4249505209</v>
+        <v>32956.9994427084</v>
       </c>
       <c r="X27" s="15">
-        <v>28113.9440312499</v>
+        <v>25633.8462229167</v>
       </c>
       <c r="Y27" s="15">
-        <v>25097.5403281251</v>
+        <v>26633.0676927083</v>
       </c>
       <c r="Z27" s="15">
-        <v>25888.5644479167</v>
+        <v>24749.5141315104</v>
       </c>
       <c r="AA27" s="15">
-        <v>56758.3842427084</v>
+        <v>29156.3913463542</v>
       </c>
       <c r="AB27" s="15">
-        <v>23338.311109375</v>
+        <v>50380.3500708333</v>
       </c>
       <c r="AC27" s="15">
-        <v>30351.2881916666</v>
+        <v>24669.8909479166</v>
       </c>
       <c r="AD27" s="15">
-        <v>26194.1370445312</v>
+        <v>33137.3560354166</v>
       </c>
       <c r="AE27" s="15">
-        <v>25308.5318151042</v>
+        <v>27257.16000625</v>
       </c>
       <c r="AF27" s="15">
-        <v>36704.13703125</v>
+        <v>27937.14556302087</v>
       </c>
       <c r="AG27" s="15">
-        <v>26636.9361302083</v>
+        <v>39916.2645927084</v>
       </c>
       <c r="AH27" s="15">
-        <v>23629.342578125</v>
+        <v>30762.5672979167</v>
       </c>
       <c r="AI27" s="15">
-        <v>27939.2595802083</v>
+        <v>24521.6771807292</v>
       </c>
       <c r="AJ27" s="15">
-        <v>40067.5849234375</v>
+        <v>29055.4297230729</v>
       </c>
       <c r="AK27" s="15">
-        <v>30547.4970104167</v>
+        <v>26339.0871792708</v>
       </c>
       <c r="AL27" s="15">
-        <v>23108.74015625</v>
+        <v>34736.19434375</v>
       </c>
       <c r="AM27" s="15">
-        <v>29303.8500036458</v>
+        <v>39300.105847395</v>
       </c>
       <c r="AN27" s="15">
-        <v>35310.2433385416</v>
+        <v>31792.6193570312</v>
       </c>
       <c r="AO27" s="15">
-        <v>29401.30887890619</v>
+        <v>35351.3640453125</v>
       </c>
       <c r="AP27" s="15">
-        <v>31890.83598125</v>
+        <v>27274.7855739584</v>
       </c>
       <c r="AQ27" s="15">
-        <v>13345.8106669271</v>
+        <v>32089.6280830729</v>
       </c>
       <c r="AR27" s="15">
-        <v>20464.0081492188</v>
+        <v>25805.6712979167</v>
       </c>
       <c r="AS27" s="15">
-        <v>16821.4462369791</v>
-      </c>
-      <c r="AT27" s="15"/>
-      <c r="AU27" s="15" t="str">
-        <f>SUM(B27:AT27)</f>
+        <v>15981.0900625</v>
+      </c>
+      <c r="AT27" s="15">
+        <v>24602.0941458333</v>
+      </c>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="15" t="str">
+        <f>SUM(B27:AU27)</f>
         <v>0</v>
       </c>
-      <c r="AV27" s="15"/>
       <c r="AW27" s="15"/>
       <c r="AX27" s="15"/>
       <c r="AY27" s="15"/>
